--- a/播放器状态上报协议.xlsx
+++ b/播放器状态上报协议.xlsx
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type=play_fail&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;errorcode=-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,10 @@
   </si>
   <si>
     <t>提交URL时需要对URL进行URLEncode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_fail&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;errorcode=-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,6 +666,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,66 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,50 +1069,50 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="18"/>
+      <c r="D4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1124,12 +1124,12 @@
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
@@ -1139,10 +1139,10 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1150,12 +1150,12 @@
         <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
@@ -1163,12 +1163,12 @@
         <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1178,10 +1178,10 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
@@ -1191,10 +1191,10 @@
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
@@ -1204,12 +1204,12 @@
       <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
@@ -1217,36 +1217,36 @@
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="17"/>
+      <c r="D13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="18"/>
+      <c r="D14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1258,12 +1258,12 @@
       <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
@@ -1273,10 +1273,10 @@
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
@@ -1286,10 +1286,10 @@
       <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1301,12 +1301,12 @@
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="13" t="s">
         <v>5</v>
       </c>
@@ -1316,10 +1316,10 @@
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
@@ -1329,10 +1329,10 @@
       <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1344,12 +1344,12 @@
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>52</v>
+      <c r="E21" s="36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1372,10 +1372,10 @@
       <c r="D23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1387,12 +1387,12 @@
       <c r="D24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>54</v>
+      <c r="E24" s="36" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="13" t="s">
         <v>5</v>
       </c>
@@ -1402,10 +1402,10 @@
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
@@ -1413,12 +1413,12 @@
         <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
@@ -1428,22 +1428,22 @@
       <c r="D27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
